--- a/tests/TestData.xlsx
+++ b/tests/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AjmalbashaAllabasha\Desktop\Smart Lender\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775A730-D0D0-489B-80C9-3CC7B0B9C555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BECAAEA-1B5B-4D34-B438-E6E490266B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -538,11 +538,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52CD4E6-FD7F-4EA1-AD2D-0E687235BD81}">
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,10 +1014,10 @@
       </c>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2207,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9552AF33-97A1-4D2D-8017-4510D4934C9B}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
